--- a/config_12.01/fish_yutu_random_2.xlsx
+++ b/config_12.01/fish_yutu_random_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -86,36 +86,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>boss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>create_weight5</t>
   </si>
   <si>
-    <t>巨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>create_weight4</t>
   </si>
   <si>
-    <t>大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>create_weight3</t>
   </si>
   <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>create_weight2</t>
-  </si>
-  <si>
-    <t>小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>|1小鱼
@@ -168,15 +148,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>create_weight1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>create_config|出生权重引用页面，不填的组权重为1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,40,30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -200,124 +172,133 @@
     <t>end_time|结束时间</t>
   </si>
   <si>
+    <t>create_delay|活动鱼创建间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>148,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity</t>
+  </si>
+  <si>
+    <t>judge_type|判断类型,2 =,3 &gt;= ,4 &lt;= , 5 ~=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>149,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150,</t>
+  </si>
+  <si>
+    <t>56,</t>
+  </si>
+  <si>
+    <t>57,</t>
+  </si>
+  <si>
+    <t>55,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>126,127,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>129,130,131,132,133,134,135,136,137,138,139,140,141,142,143,144,167,168,169,170,</t>
+  </si>
+  <si>
+    <t>5,5,5,</t>
+  </si>
+  <si>
     <t>create_weight6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_delay|活动鱼创建间隔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>group_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>min_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>max_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>148,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>活动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,183,</t>
+  </si>
+  <si>
+    <t>30,40,30</t>
+  </si>
+  <si>
+    <t>create_weight1</t>
+  </si>
+  <si>
+    <t>小</t>
+  </si>
+  <si>
+    <t>12,13,14,15,18,19,20,21,184,185,</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>16,17,22,23,24,25,35,36,37,48,49,55,56,58,64,65,66,74,75,76,77,116,117,118,121,155,156,157,162,163,167,168,169,187,192,186,187,</t>
+  </si>
+  <si>
+    <t>20,60,5</t>
+  </si>
+  <si>
+    <t>大</t>
+  </si>
+  <si>
+    <t>26,28,29,30,33,34,38,39,40,41,42,43,44,45,46,47,50,51,52,53,54,57,61,62,63,67,68,71,72,73,83,84,85,91,92,93,94,95,101,102,103,105,111,112,113,119,126,158,159,160,161,164,165,166,167,168,169,170,188,189,</t>
   </si>
   <si>
     <t>60,10,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>activity</t>
-  </si>
-  <si>
-    <t>judge_type|判断类型,2 =,3 &gt;= ,4 &lt;= , 5 ~=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,60,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>149,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>49,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨</t>
+  </si>
+  <si>
+    <t>27,31,32,59,60,69,70,78,79,80,81,82,86,87,88,89,90,96,97,98,99,100,104,106,107,108,109,110,114,115,120,122,123,124,125,127,128,167,168,169,170,190,</t>
   </si>
   <si>
     <t>10,10,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,5,5,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>150,</t>
-  </si>
-  <si>
-    <t>56,</t>
-  </si>
-  <si>
-    <t>57,</t>
-  </si>
-  <si>
-    <t>55,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>27,31,32,59,60,69,70,78,79,80,81,82,86,87,88,89,90,96,97,98,99,100,104,106,107,108,109,110,114,115,120,122,123,124,125,127,128,167,168,169,170,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>129,130,131,132,133,134,135,136,137,138,139,140,141,142,143,144,167,168,169,170,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,183,184,185,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12,13,14,15,18,19,20,21,186,188,189,190,191,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16,17,22,23,24,25,35,36,37,48,49,55,56,58,64,65,66,74,75,76,77,116,117,118,121,155,156,157,162,163,167,168,169,187,192,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26,28,29,30,33,34,38,39,40,41,42,43,44,45,46,47,50,51,52,53,54,57,61,62,63,67,68,71,72,73,83,84,85,91,92,93,94,95,101,102,103,105,111,112,113,119,126,158,159,160,161,164,165,166,167,168,169,170,193,194,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>126,127,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss</t>
   </si>
 </sst>
 </file>
@@ -768,25 +749,25 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -835,7 +816,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -884,7 +865,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -941,7 +922,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -990,7 +971,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1029,7 +1010,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -1040,19 +1021,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1060,7 +1041,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C2">
         <v>1800</v>
@@ -1069,7 +1050,7 @@
         <v>3000</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1077,7 +1058,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C3">
         <v>600</v>
@@ -1086,7 +1067,7 @@
         <v>1800</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1094,7 +1075,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C4">
         <v>600</v>
@@ -1103,7 +1084,7 @@
         <v>1200</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1111,7 +1092,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C5">
         <v>1800</v>
@@ -1120,7 +1101,7 @@
         <v>2400</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -1128,7 +1109,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="C6">
         <v>2000</v>
@@ -1137,7 +1118,7 @@
         <v>4000</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1153,7 +1134,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1170,28 +1151,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1199,7 +1180,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C2" s="9">
         <v>15</v>
@@ -1223,7 +1204,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C3" s="8">
         <v>16</v>
@@ -1247,7 +1228,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C4" s="8">
         <v>17</v>
@@ -1273,7 +1254,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C5">
         <v>21</v>
@@ -1297,7 +1278,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C6">
         <v>22</v>
@@ -1320,7 +1301,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C7">
         <v>23</v>
@@ -1343,7 +1324,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C8">
         <v>24</v>
@@ -1366,22 +1347,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C9" s="8">
-        <v>27</v>
-      </c>
-      <c r="D9" s="9">
+        <v>35</v>
+      </c>
+      <c r="D9" s="8">
         <v>2</v>
       </c>
       <c r="E9" s="8">
         <v>1</v>
       </c>
-      <c r="G9" s="10">
-        <v>1601335800</v>
-      </c>
-      <c r="H9" s="10">
-        <v>1601913599</v>
+      <c r="G9" s="8">
+        <v>1606176000</v>
+      </c>
+      <c r="H9" s="8">
+        <v>1606751999</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1389,22 +1370,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C10" s="8">
-        <v>28</v>
-      </c>
-      <c r="D10" s="9">
+        <v>36</v>
+      </c>
+      <c r="D10" s="8">
         <v>2</v>
       </c>
       <c r="E10" s="8">
         <v>1</v>
       </c>
-      <c r="G10" s="10">
-        <v>1601335800</v>
-      </c>
-      <c r="H10" s="10">
-        <v>1601913599</v>
+      <c r="G10" s="8">
+        <v>1606176000</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1606751999</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1412,22 +1393,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C11" s="8">
-        <v>29</v>
-      </c>
-      <c r="D11" s="9">
+        <v>37</v>
+      </c>
+      <c r="D11" s="8">
         <v>2</v>
       </c>
       <c r="E11" s="8">
         <v>1</v>
       </c>
-      <c r="G11" s="10">
-        <v>1601335800</v>
-      </c>
-      <c r="H11" s="10">
-        <v>1601913599</v>
+      <c r="G11" s="8">
+        <v>1606176000</v>
+      </c>
+      <c r="H11" s="8">
+        <v>1606751999</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1435,22 +1416,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C12" s="8">
-        <v>30</v>
-      </c>
-      <c r="D12" s="9">
+        <v>38</v>
+      </c>
+      <c r="D12" s="8">
         <v>2</v>
       </c>
       <c r="E12" s="8">
         <v>5</v>
       </c>
-      <c r="G12" s="10">
-        <v>1601335800</v>
-      </c>
-      <c r="H12" s="10">
-        <v>1601913599</v>
+      <c r="G12" s="8">
+        <v>1606176000</v>
+      </c>
+      <c r="H12" s="8">
+        <v>1606751999</v>
       </c>
     </row>
   </sheetData>
@@ -1648,8 +1629,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1663,19 +1644,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -1683,16 +1664,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -1700,16 +1681,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1717,16 +1698,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1734,33 +1715,33 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="27" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1768,16 +1749,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2163,7 +2144,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2228,7 +2209,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">

--- a/config_12.01/fish_yutu_random_2.xlsx
+++ b/config_12.01/fish_yutu_random_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -236,10 +236,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>126,127,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -299,6 +295,10 @@
   </si>
   <si>
     <t>boss</t>
+  </si>
+  <si>
+    <t>191,192,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1010,8 +1010,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1109,7 +1109,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C6">
         <v>2000</v>
@@ -1118,7 +1118,7 @@
         <v>4000</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1629,8 +1629,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1664,16 +1664,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -1681,16 +1681,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1698,16 +1698,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1715,16 +1715,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1732,16 +1732,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1749,16 +1749,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">

--- a/config_12.01/fish_yutu_random_2.xlsx
+++ b/config_12.01/fish_yutu_random_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="74">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -311,12 +311,20 @@
     <t>26,28,29,30,33,34,38,39,40,41,42,43,44,45,46,47,50,51,52,53,54,57,61,62,63,67,68,71,72,73,83,84,85,91,92,93,94,95,101,102,103,105,111,112,113,119,126,158,159,160,161,164,165,166,167,168,169,170,193,194,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>126,127,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,6 +388,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111F2C"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -425,7 +439,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -456,6 +470,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1012,15 +1027,15 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="20.375" customWidth="1"/>
+    <col min="5" max="5" width="58.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -1106,6 +1121,23 @@
       </c>
       <c r="E5" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6">
+        <v>2000</v>
+      </c>
+      <c r="D6">
+        <v>4000</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1616,7 +1648,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
